--- a/xlsx/尼罗河_intext.xlsx
+++ b/xlsx/尼罗河_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
   <si>
     <t>尼罗河</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_尼罗河</t>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_尼罗河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -53,13 +53,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
   </si>
   <si>
-    <t>乌干达</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -101,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%B3%88</t>
   </si>
   <si>
-    <t>金賈</t>
+    <t>金贾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%B7%B4</t>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%B4%8D%E6%B9%96</t>
   </si>
   <si>
-    <t>塔納湖</t>
+    <t>塔纳湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>剛果河</t>
+    <t>刚果河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94%E6%B2%B3</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>亞馬遜河</t>
+    <t>亚马逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B9%96%E5%9C%B0%E5%8C%BA</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E6%B9%96</t>
   </si>
   <si>
-    <t>維多利亞湖</t>
+    <t>维多利亚湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E7%89%B9%E6%B9%96</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%9D%9E%E5%A4%A7%E8%A3%82%E8%B0%B7</t>
   </si>
   <si>
-    <t>東非大裂谷</t>
+    <t>东非大裂谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%89%B9%E5%B7%B4%E6%8B%89%E6%B2%B3</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%93%8B%E6%8B%89%E6%B2%B3</t>
   </si>
   <si>
-    <t>卡蓋拉河</t>
+    <t>卡盖拉河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%A7%91%E5%B7%B4</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A5%A7%E5%8A%A0%E6%B9%96</t>
   </si>
   <si>
-    <t>基奧加湖</t>
+    <t>基奥加湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E5%8F%91</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%8D%A1%E5%8B%92</t>
   </si>
   <si>
-    <t>馬拉卡勒</t>
+    <t>马拉卡勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B7%B4%E7%89%B9%E6%B2%B3</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E9%BE%8D%E5%8A%A0%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>維龍加山脈</t>
+    <t>维龙加山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E6%B0%B4</t>
@@ -479,9 +476,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%E6%B9%96</t>
   </si>
   <si>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>衣索比亞高原</t>
+    <t>衣索比亚高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E7%BD%97%E5%9F%83</t>
@@ -605,9 +599,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>刚果河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
@@ -617,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E9%A0%93%C2%B7%E5%8F%B2%E4%B8%B9%E5%88%A9</t>
   </si>
   <si>
-    <t>亨利·莫頓·史丹利</t>
+    <t>亨利·莫顿·史丹利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>國家地理學會</t>
+    <t>国家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E6%B8%AF</t>
@@ -653,13 +644,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E5%AF%8C</t>
@@ -683,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%B3%BD%E7%88%BE%E6%B0%B4%E5%BA%AB</t>
   </si>
   <si>
-    <t>納賽爾水庫</t>
+    <t>纳赛尔水库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%BA%BF</t>
@@ -695,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E8%9C%80</t>
   </si>
   <si>
-    <t>樂蜀</t>
+    <t>乐蜀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%8E%E5%B1%91%E5%B2%A9</t>
@@ -737,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E8%BE%BE%E7%B1%B3%E4%BA%9A</t>
@@ -761,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -779,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E5%9C%B0%E5%8C%BA</t>
@@ -851,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -875,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
@@ -941,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>泛阿拉伯顏色</t>
+    <t>泛阿拉伯颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
@@ -1507,10 +1495,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1536,10 +1524,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -1565,10 +1553,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1594,10 +1582,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1623,10 +1611,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1652,10 +1640,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1681,10 +1669,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1710,10 +1698,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1739,10 +1727,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1768,10 +1756,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
@@ -1797,10 +1785,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -1826,10 +1814,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>16</v>
@@ -1855,10 +1843,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>147</v>
@@ -1884,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1913,10 +1901,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>19</v>
@@ -1942,10 +1930,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -1971,10 +1959,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>11</v>
@@ -2000,10 +1988,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2029,10 +2017,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>21</v>
@@ -2058,10 +2046,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2087,10 +2075,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2116,10 +2104,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2145,10 +2133,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>267</v>
@@ -2174,10 +2162,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2203,10 +2191,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -2232,10 +2220,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2261,10 +2249,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2290,10 +2278,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
@@ -2319,10 +2307,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2348,10 +2336,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2377,10 +2365,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2406,10 +2394,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2435,10 +2423,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2464,10 +2452,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2493,10 +2481,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2522,10 +2510,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2551,10 +2539,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>22</v>
@@ -2580,10 +2568,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
         <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2609,10 +2597,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>10</v>
@@ -2638,10 +2626,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>10</v>
@@ -2667,10 +2655,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>6</v>
@@ -2696,10 +2684,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2725,10 +2713,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2754,10 +2742,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
@@ -2783,10 +2771,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2812,10 +2800,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -2841,10 +2829,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2870,10 +2858,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2899,10 +2887,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2928,10 +2916,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2957,10 +2945,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -2986,10 +2974,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3015,10 +3003,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3044,10 +3032,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3073,10 +3061,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3102,10 +3090,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3131,10 +3119,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3160,10 +3148,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3189,10 +3177,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3218,10 +3206,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3247,10 +3235,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3276,10 +3264,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3305,10 +3293,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3334,10 +3322,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3363,10 +3351,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3392,10 +3380,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3421,10 +3409,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3450,10 +3438,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3479,10 +3467,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3508,10 +3496,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3537,10 +3525,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3566,10 +3554,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3595,10 +3583,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3624,10 +3612,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3653,10 +3641,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3682,10 +3670,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>30</v>
@@ -3711,10 +3699,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3740,10 +3728,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3769,10 +3757,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3798,10 +3786,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3827,10 +3815,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3856,10 +3844,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -3885,10 +3873,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3914,10 +3902,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3943,10 +3931,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3972,10 +3960,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4001,10 +3989,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4030,10 +4018,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4059,10 +4047,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4088,10 +4076,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4117,10 +4105,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4146,10 +4134,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4175,10 +4163,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4204,10 +4192,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4233,10 +4221,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4262,10 +4250,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4291,10 +4279,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4320,10 +4308,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4349,10 +4337,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4378,10 +4366,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4407,10 +4395,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4436,10 +4424,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4465,10 +4453,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4494,10 +4482,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4523,10 +4511,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4552,10 +4540,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4581,10 +4569,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4610,10 +4598,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4639,10 +4627,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>90</v>
+      </c>
+      <c r="F115" t="s">
         <v>91</v>
-      </c>
-      <c r="F115" t="s">
-        <v>92</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -4668,10 +4656,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4697,10 +4685,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4726,10 +4714,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4755,10 +4743,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -4784,10 +4772,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4813,10 +4801,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -4842,10 +4830,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4871,10 +4859,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4900,10 +4888,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4929,10 +4917,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4958,10 +4946,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4987,10 +4975,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5016,10 +5004,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5045,10 +5033,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5074,10 +5062,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5103,10 +5091,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5132,10 +5120,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5161,10 +5149,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5190,10 +5178,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5219,10 +5207,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5248,10 +5236,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5277,10 +5265,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5306,10 +5294,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5335,10 +5323,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5364,10 +5352,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5393,10 +5381,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5422,10 +5410,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5451,10 +5439,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5480,10 +5468,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -5509,10 +5497,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5538,10 +5526,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5567,10 +5555,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5596,10 +5584,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5625,10 +5613,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5654,10 +5642,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5683,10 +5671,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5712,10 +5700,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5741,10 +5729,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5770,10 +5758,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5799,10 +5787,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5828,10 +5816,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5857,10 +5845,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -5886,10 +5874,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5915,10 +5903,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5944,10 +5932,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>

--- a/xlsx/尼罗河_intext.xlsx
+++ b/xlsx/尼罗河_intext.xlsx
@@ -29,7 +29,7 @@
     <t>烏干達</t>
   </si>
   <si>
-    <t>政策_政策_美國_尼罗河</t>
+    <t>体育运动_体育运动_古埃及_尼罗河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
@@ -2151,7 +2151,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -3688,7 +3688,7 @@
         <v>162</v>
       </c>
       <c r="G82" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -4819,7 +4819,7 @@
         <v>238</v>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
